--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>481089.6332646934</v>
+        <v>572993.6190112255</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8088944.869226762</v>
+        <v>8547013.059513938</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8722880.896883905</v>
+        <v>8506890.903312847</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>39.70122005611995</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02307145248675397</v>
+        <v>5.42622092126343</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="4">
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.10833718734084</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C5" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>6.396723986041656</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>141.4261508958561</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>41.31278354454163</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -990,13 +992,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1093,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q7" t="n">
-        <v>34.10833718734084</v>
+        <v>34.10833718734057</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1133,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>233.5628768781033</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.05007310606277</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904886</v>
+        <v>40.58439354511574</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721433</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1300,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>29.85116173898095</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923926</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>60.48910589095192</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>230.5293923059315</v>
       </c>
     </row>
     <row r="12">
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>201.6622187863195</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>174.5639451167773</v>
       </c>
     </row>
     <row r="15">
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>87.93270968653133</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1822,7 +1824,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>61.36917500887012</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>344.0499580396273</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>34.16966515648379</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1986,7 +1988,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034773</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>44.69901519809433</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>124.4272108043268</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>263.3429757223604</v>
       </c>
       <c r="H20" t="n">
-        <v>284.7781523974834</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>87.93270968653111</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.46084344268539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>169.2270660549918</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -2336,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>201.66221878632</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>142.4274484045733</v>
+        <v>2.867288517453645</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>255.21317930333</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>229.7965692041371</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>80.5888876287201</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.80487962572869</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>55.82801639720899</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>168.1158122680967</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>58.28185552386306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>166.3516656678852</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3029,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3044,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
@@ -3089,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>187.9685985371958</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>61.26635328439163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2.784880221500639</v>
       </c>
       <c r="G34" t="n">
-        <v>99.6160534792966</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3269,22 +3271,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>145.2481701217147</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>308.9203564757131</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>28.46932083023325</v>
       </c>
       <c r="U37" t="n">
-        <v>115.0138334144183</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>299.4200133688915</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>28.78048096121077</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>81.4608434426853</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>133.6650819731288</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3901,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>90.71884874534416</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>87.62154955555326</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>209.6931219609845</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>20.95866062610972</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487955</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="C2" t="n">
-        <v>371.2627786323105</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="D2" t="n">
-        <v>371.2627786323105</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="E2" t="n">
-        <v>204.4218319897906</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330561</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330561</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330561</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020272</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652805</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652805</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652805</v>
+        <v>710.0001061843508</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652805</v>
+        <v>710.0001061843508</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652805</v>
+        <v>710.0001061843508</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652805</v>
+        <v>520.5803211678659</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652805</v>
+        <v>520.5803211678659</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652805</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487955</v>
+        <v>331.1605361513811</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.53661367296051</v>
+        <v>176.361962382226</v>
       </c>
       <c r="C3" t="n">
-        <v>30.53661367296051</v>
+        <v>176.361962382226</v>
       </c>
       <c r="D3" t="n">
-        <v>30.53661367296051</v>
+        <v>176.361962382226</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296051</v>
+        <v>176.361962382226</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296051</v>
+        <v>176.361962382226</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296051</v>
+        <v>176.361962382226</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296051</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140248</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017069</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.0790441678191</v>
+        <v>744.6213174316806</v>
       </c>
       <c r="S3" t="n">
-        <v>598.7959687224154</v>
+        <v>744.6213174316806</v>
       </c>
       <c r="T3" t="n">
-        <v>598.7959687224154</v>
+        <v>744.6213174316806</v>
       </c>
       <c r="U3" t="n">
-        <v>409.3761837059304</v>
+        <v>744.6213174316806</v>
       </c>
       <c r="V3" t="n">
-        <v>219.9563986894455</v>
+        <v>744.6213174316806</v>
       </c>
       <c r="W3" t="n">
-        <v>30.53661367296051</v>
+        <v>555.2015324151957</v>
       </c>
       <c r="X3" t="n">
-        <v>30.53661367296051</v>
+        <v>365.7817473987109</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.53661367296051</v>
+        <v>176.361962382226</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>204.4218319897906</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="C5" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D5" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E5" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F5" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123833</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020272</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S5" t="n">
-        <v>589.7227393823986</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T5" t="n">
-        <v>400.3029543659136</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U5" t="n">
-        <v>393.8416170062756</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V5" t="n">
-        <v>393.8416170062756</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W5" t="n">
-        <v>393.8416170062756</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="X5" t="n">
-        <v>393.8416170062756</v>
+        <v>583.26140202276</v>
       </c>
       <c r="Y5" t="n">
-        <v>393.8416170062756</v>
+        <v>393.8416170062752</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>750.1023486652805</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="C6" t="n">
-        <v>607.2476507906783</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="D6" t="n">
-        <v>458.313241129427</v>
+        <v>635.2077232380022</v>
       </c>
       <c r="E6" t="n">
-        <v>299.0757861239715</v>
+        <v>475.9702682325468</v>
       </c>
       <c r="F6" t="n">
-        <v>152.5412281508565</v>
+        <v>329.4357102594318</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330561</v>
+        <v>191.8965290818809</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330573</v>
+        <v>90.03616812153781</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330573</v>
+        <v>30.53661367296054</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330573</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024233</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772652</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140248</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546607</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476355</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017069</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652805</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652805</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652805</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="U6" t="n">
-        <v>750.1023486652805</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="V6" t="n">
-        <v>750.1023486652805</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="W6" t="n">
-        <v>750.1023486652805</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="X6" t="n">
-        <v>750.1023486652805</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.1023486652805</v>
+        <v>676.9378076264281</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P7" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="R7" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="S7" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T7" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U7" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V7" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W7" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X7" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2168.459826904653</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C8" t="n">
-        <v>1799.497309964241</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D8" t="n">
-        <v>1563.575212107571</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E8" t="n">
-        <v>1177.786959509327</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F8" t="n">
-        <v>766.8010547197192</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G8" t="n">
-        <v>350.7700094231265</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678492</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232727</v>
+        <v>80.81213159058942</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711874</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.459826904653</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="X8" t="n">
-        <v>2168.459826904653</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="Y8" t="n">
-        <v>2168.459826904653</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>175.490692336986</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="C9" t="n">
-        <v>175.490692336986</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="D9" t="n">
-        <v>175.490692336986</v>
+        <v>601.1679390040284</v>
       </c>
       <c r="E9" t="n">
-        <v>175.490692336986</v>
+        <v>441.9304839985729</v>
       </c>
       <c r="F9" t="n">
-        <v>175.490692336986</v>
+        <v>295.3959260254579</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>157.8567448479071</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>55.99638388756392</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562314</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104394</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789486</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689046</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333486</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.563316948358</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U9" t="n">
-        <v>1172.461727081622</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V9" t="n">
-        <v>937.3096188498791</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="W9" t="n">
-        <v>683.0722621216776</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="X9" t="n">
-        <v>475.2207619161447</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="Y9" t="n">
-        <v>267.4604631511908</v>
+        <v>750.1023486652797</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.289347040599</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>520.289347040599</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
-        <v>520.289347040599</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>520.289347040599</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>490.1366584153657</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>322.003829010384</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>171.9636155141767</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934483</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981519</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927331</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377459</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033657</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P10" t="n">
-        <v>520.289347040599</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.289347040599</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="R10" t="n">
-        <v>520.289347040599</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="S10" t="n">
-        <v>520.289347040599</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T10" t="n">
-        <v>520.289347040599</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U10" t="n">
-        <v>520.289347040599</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V10" t="n">
-        <v>520.289347040599</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W10" t="n">
-        <v>520.289347040599</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X10" t="n">
-        <v>520.289347040599</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.289347040599</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1311.909787855438</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C11" t="n">
-        <v>942.9472709150261</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D11" t="n">
-        <v>584.6815723082757</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E11" t="n">
-        <v>584.6815723082757</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>584.6815723082757</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>169.6091221532722</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
@@ -5060,31 +5062,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y11" t="n">
-        <v>1698.50962791956</v>
+        <v>1575.942324366272</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5117,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228008</v>
@@ -5124,10 +5126,10 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5194,10 +5196,10 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K13" t="n">
         <v>176.6457242372933</v>
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5294,10 +5296,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5306,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W14" t="n">
-        <v>3121.906610713899</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="X14" t="n">
-        <v>3121.906610713899</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="15">
@@ -5346,16 +5348,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372933</v>
@@ -5443,43 +5445,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S16" t="n">
-        <v>832.0660869429007</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T16" t="n">
-        <v>610.2994715124267</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U16" t="n">
-        <v>321.1966046380703</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="V16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="W16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1647.321240915451</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C17" t="n">
-        <v>1278.358723975039</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218343</v>
@@ -5525,13 +5527,13 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052369</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.97538618064</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X17" t="n">
-        <v>2037.460572891262</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y17" t="n">
-        <v>1647.321240915451</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>531.2215399677106</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C19" t="n">
-        <v>531.2215399677106</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D19" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
         <v>66.51211643218343</v>
@@ -5695,28 +5697,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R19" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S19" t="n">
-        <v>785.9060281735974</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T19" t="n">
-        <v>785.9060281735974</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U19" t="n">
-        <v>785.9060281735974</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V19" t="n">
-        <v>531.2215399677106</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W19" t="n">
-        <v>531.2215399677106</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X19" t="n">
-        <v>531.2215399677106</v>
+        <v>692.8974549201677</v>
       </c>
       <c r="Y19" t="n">
-        <v>531.2215399677106</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1878.169188758595</v>
+        <v>2196.097994299123</v>
       </c>
       <c r="C20" t="n">
-        <v>1509.206671818183</v>
+        <v>1827.135477358712</v>
       </c>
       <c r="D20" t="n">
-        <v>1150.940973211433</v>
+        <v>1468.869778751961</v>
       </c>
       <c r="E20" t="n">
-        <v>765.1527206131884</v>
+        <v>1083.081526153717</v>
       </c>
       <c r="F20" t="n">
-        <v>354.1668158235809</v>
+        <v>672.0956213641095</v>
       </c>
       <c r="G20" t="n">
-        <v>354.1668158235809</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052369</v>
@@ -5786,16 +5788,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2994.542934265601</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
-        <v>2641.774278995486</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.308520734407</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.169188758595</v>
+        <v>2582.697834363245</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962289</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588484</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886959</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068856</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596443</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S22" t="n">
-        <v>920.887005818185</v>
+        <v>3236.784902733888</v>
       </c>
       <c r="T22" t="n">
-        <v>920.887005818185</v>
+        <v>3015.018287303414</v>
       </c>
       <c r="U22" t="n">
-        <v>920.887005818185</v>
+        <v>2725.915420429057</v>
       </c>
       <c r="V22" t="n">
-        <v>666.2025176122982</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="W22" t="n">
-        <v>376.7853475753375</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="X22" t="n">
-        <v>148.7957966773202</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.23093222317</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1308.370295943748</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C23" t="n">
-        <v>1308.370295943748</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D23" t="n">
-        <v>950.1045973369974</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E23" t="n">
-        <v>950.1045973369974</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180639</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.50962791956</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943748</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="24">
@@ -6069,10 +6071,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>777.020896318616</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C25" t="n">
-        <v>608.0847133907091</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D25" t="n">
-        <v>457.9680739783734</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E25" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F25" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H25" t="n">
         <v>163.8377936138381</v>
@@ -6169,28 +6171,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R25" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S25" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T25" t="n">
-        <v>777.020896318616</v>
+        <v>828.1602975479819</v>
       </c>
       <c r="U25" t="n">
-        <v>777.020896318616</v>
+        <v>828.1602975479819</v>
       </c>
       <c r="V25" t="n">
-        <v>777.020896318616</v>
+        <v>573.4758093420951</v>
       </c>
       <c r="W25" t="n">
-        <v>777.020896318616</v>
+        <v>573.4758093420951</v>
       </c>
       <c r="X25" t="n">
-        <v>777.020896318616</v>
+        <v>345.4862584440777</v>
       </c>
       <c r="Y25" t="n">
-        <v>777.020896318616</v>
+        <v>345.4862584440777</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1822.632236038043</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="C26" t="n">
-        <v>1453.669719097631</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="D26" t="n">
-        <v>1095.404020490881</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E26" t="n">
-        <v>709.6157678926365</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F26" t="n">
-        <v>298.629863103029</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912088</v>
@@ -6248,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.605821609171</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W26" t="n">
-        <v>2972.837166339056</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X26" t="n">
-        <v>2599.371408077976</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y26" t="n">
-        <v>2209.232076102165</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6336,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6345,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>212.7293032143256</v>
+        <v>484.5540527820583</v>
       </c>
       <c r="C28" t="n">
-        <v>212.7293032143256</v>
+        <v>315.6178698541514</v>
       </c>
       <c r="D28" t="n">
-        <v>212.7293032143256</v>
+        <v>315.6178698541514</v>
       </c>
       <c r="E28" t="n">
-        <v>212.7293032143256</v>
+        <v>315.6178698541514</v>
       </c>
       <c r="F28" t="n">
-        <v>212.7293032143256</v>
+        <v>315.6178698541514</v>
       </c>
       <c r="G28" t="n">
-        <v>212.7293032143256</v>
+        <v>147.9150332288704</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>147.9150332288704</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
@@ -6406,28 +6408,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>909.9729859942165</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>909.9729859942165</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>688.2063705637426</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>688.2063705637426</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V28" t="n">
-        <v>433.5218823578557</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W28" t="n">
-        <v>433.5218823578557</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X28" t="n">
-        <v>433.5218823578557</v>
+        <v>666.202517612298</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.7293032143256</v>
+        <v>666.202517612298</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2005.586939522201</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.624422581789</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912088</v>
@@ -6485,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3269.213885854414</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3063.236138238636</v>
       </c>
       <c r="U29" t="n">
-        <v>3155.791869823214</v>
+        <v>3063.236138238636</v>
       </c>
       <c r="V29" t="n">
-        <v>3155.791869823214</v>
+        <v>3063.236138238636</v>
       </c>
       <c r="W29" t="n">
-        <v>3155.791869823214</v>
+        <v>3063.236138238636</v>
       </c>
       <c r="X29" t="n">
-        <v>2782.326111562134</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="Y29" t="n">
-        <v>2392.186779586323</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6539,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2640.167115151076</v>
+        <v>3143.95735677893</v>
       </c>
       <c r="C31" t="n">
-        <v>2471.230932223169</v>
+        <v>2975.021173851023</v>
       </c>
       <c r="D31" t="n">
-        <v>2471.230932223169</v>
+        <v>2824.904534438688</v>
       </c>
       <c r="E31" t="n">
-        <v>2471.230932223169</v>
+        <v>2676.991440856295</v>
       </c>
       <c r="F31" t="n">
-        <v>2471.230932223169</v>
+        <v>2530.101493358384</v>
       </c>
       <c r="G31" t="n">
         <v>2471.230932223169</v>
@@ -6619,52 +6621,52 @@
         <v>2471.230932223169</v>
       </c>
       <c r="J31" t="n">
-        <v>2483.053685760609</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K31" t="n">
         <v>2581.364540028279</v>
       </c>
       <c r="L31" t="n">
-        <v>2737.074383950637</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M31" t="n">
         <v>2904.506865249834</v>
       </c>
       <c r="N31" t="n">
-        <v>3075.815702279682</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O31" t="n">
         <v>3213.734051497871</v>
       </c>
       <c r="P31" t="n">
-        <v>3312.68505425063</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R31" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S31" t="n">
-        <v>3157.573836086054</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T31" t="n">
-        <v>3157.573836086054</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U31" t="n">
-        <v>3157.573836086054</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V31" t="n">
-        <v>3157.573836086054</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W31" t="n">
-        <v>2868.156666049093</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X31" t="n">
-        <v>2640.167115151076</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="Y31" t="n">
-        <v>2640.167115151076</v>
+        <v>3325.60582160917</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1636.624422581789</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C32" t="n">
-        <v>1636.624422581789</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6725,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180638</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.509627919559</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y32" t="n">
-        <v>1636.624422581789</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
         <v>66.5121164321834</v>
@@ -6780,10 +6782,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6810,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6819,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2815.396072428679</v>
+        <v>700.0944266746548</v>
       </c>
       <c r="C34" t="n">
-        <v>2815.396072428679</v>
+        <v>531.1582437467479</v>
       </c>
       <c r="D34" t="n">
-        <v>2815.396072428679</v>
+        <v>531.1582437467479</v>
       </c>
       <c r="E34" t="n">
-        <v>2815.396072428679</v>
+        <v>383.2451501643548</v>
       </c>
       <c r="F34" t="n">
-        <v>2815.396072428679</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G34" t="n">
-        <v>2714.773796186966</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H34" t="n">
-        <v>2568.556609404824</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W34" t="n">
-        <v>3036.188651572209</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X34" t="n">
-        <v>3036.188651572209</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y34" t="n">
-        <v>2815.396072428679</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>921.7704558796265</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C35" t="n">
-        <v>552.8079389392149</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D35" t="n">
-        <v>406.0926155839475</v>
+        <v>764.3411331473096</v>
       </c>
       <c r="E35" t="n">
-        <v>406.0926155839475</v>
+        <v>378.5528805490654</v>
       </c>
       <c r="F35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912089</v>
@@ -6944,7 +6946,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6959,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.97538618064</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.50962791956</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y35" t="n">
-        <v>1308.370295943748</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7047,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S37" t="n">
-        <v>3325.605821609171</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T37" t="n">
-        <v>3325.605821609171</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="U37" t="n">
-        <v>3209.430232301678</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V37" t="n">
-        <v>3209.430232301678</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W37" t="n">
-        <v>2920.013062264718</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X37" t="n">
-        <v>2692.0235113667</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1832.276849100055</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C38" t="n">
-        <v>1463.314332159643</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D38" t="n">
-        <v>1463.314332159643</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E38" t="n">
-        <v>1077.526079561399</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F38" t="n">
-        <v>666.5401747717915</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V38" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W38" t="n">
-        <v>2609.016021139988</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X38" t="n">
-        <v>2609.016021139988</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y38" t="n">
-        <v>2218.876689164177</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J39" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158135</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>3235.775364366699</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>3044.089480193526</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>3015.018287303414</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>2725.915420429057</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="V40" t="n">
-        <v>2471.23093222317</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W40" t="n">
-        <v>2471.23093222317</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1930.094988518961</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>1561.13247157855</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>1202.866772971799</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>817.078520373555</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3080.299918819975</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>3080.299918819975</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>3080.299918819975</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W41" t="n">
-        <v>3080.299918819975</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X41" t="n">
-        <v>2706.834160558895</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y41" t="n">
-        <v>2316.694828583083</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="42">
@@ -7479,22 +7481,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>603.0669976776956</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C43" t="n">
-        <v>603.0669976776956</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D43" t="n">
-        <v>452.9503582653598</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E43" t="n">
-        <v>305.0372646829667</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F43" t="n">
-        <v>158.1473171850563</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>831.0565485757129</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U43" t="n">
-        <v>831.0565485757129</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V43" t="n">
-        <v>831.0565485757129</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W43" t="n">
-        <v>831.0565485757129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X43" t="n">
-        <v>603.0669976776956</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y43" t="n">
-        <v>603.0669976776956</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1647.321240915451</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C44" t="n">
-        <v>1278.358723975039</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7670,28 +7672,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>2797.526171216464</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>2797.526171216464</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W44" t="n">
-        <v>2797.526171216464</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X44" t="n">
-        <v>2424.060412955384</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y44" t="n">
-        <v>2033.921080979572</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="45">
@@ -7716,16 +7718,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7780,58 +7782,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L46" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
         <v>899.7166415493873</v>
@@ -7843,13 +7845,13 @@
         <v>355.929286469144</v>
       </c>
       <c r="W46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
   </sheetData>
@@ -22544,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046874</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>216.757832896167</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753913</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.097833230058</v>
@@ -22565,7 +22567,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>119.0745931339331</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -22604,16 +22606,16 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038149</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.205513512149</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897335</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22641,13 +22643,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4098241759764</v>
+        <v>67.00667470719975</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.3381812437708</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310515</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459948</v>
+        <v>64.1693959945996</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715747</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098435</v>
       </c>
     </row>
     <row r="4">
@@ -22726,10 +22728,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.57770336425638</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>80.60642335625585</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>195.2082544971605</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C5" t="n">
-        <v>177.7473046046874</v>
+        <v>177.7473046046876</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22829,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666373</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>25.91829388988666</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>244.7725365789887</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22847,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>204.5585635023744</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="6">
@@ -22863,10 +22865,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>31.28234809245961</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>106.1322820200971</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22878,13 +22880,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
         <v>225.8637684100909</v>
@@ -22963,10 +22965,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>34.57770336425638</v>
+        <v>34.57770336425669</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -23021,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>121.1201647425797</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708302</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092505</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>184.0684315413184</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="9">
@@ -23097,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75.48311054380457</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>18.32016535897576</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23188,22 +23190,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>115.5698862839503</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425556</v>
+        <v>16.47009429716283</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>234.1186584963685</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>155.7085463501221</v>
       </c>
     </row>
     <row r="12">
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23548,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>147.5787499310935</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>211.6739935392763</v>
       </c>
     </row>
     <row r="15">
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>101.8363156449106</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>190.7684683149579</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>10.6330835810557</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23795,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>335.5614355219852</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>145.0700101333476</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -23947,16 +23949,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>94.15744254776799</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>147.578749931093</v>
       </c>
       <c r="H20" t="n">
-        <v>9.829611989837019</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,13 +24028,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>101.8363156449108</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>137.1238099094094</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>237.6489796867197</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>2.255751353300184</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24381,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>77.12150087159588</v>
+        <v>216.6816607587155</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>127.5206623601506</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>181.1251564493163</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24494,13 +24496,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>15.76353278111799</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>78.12727304431864</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>53.35974539096684</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>82.87935969080525</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>107.7439527351652</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24886,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>23.41735966355665</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -24898,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24917,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24932,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24977,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>161.2723701802172</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>324.9715853716619</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25075,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>142.6361678014306</v>
       </c>
       <c r="G34" t="n">
-        <v>66.40975477973163</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25157,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>209.4348714989682</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>97.95568926599833</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>191.079628445936</v>
       </c>
       <c r="U37" t="n">
-        <v>171.1980047911945</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25394,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>111.5017122845619</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>64.8111951831838</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25454,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>190.7684683149584</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>204.7509947629276</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>70.25288816649132</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25688,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>181.1251564493167</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25789,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>75.30695951368406</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>41.30204999791746</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>198.5902886500595</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>424931.0936061954</v>
+        <v>424931.0936061953</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>424931.0936061954</v>
+        <v>424931.0936061953</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>658545.8706526515</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>158307.6623238765</v>
+      </c>
+      <c r="C2" t="n">
         <v>158307.6623238766</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>158307.6623238765</v>
-      </c>
-      <c r="D2" t="n">
-        <v>245340.6184784386</v>
       </c>
       <c r="E2" t="n">
         <v>312588.928500312</v>
       </c>
       <c r="F2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003116</v>
       </c>
       <c r="G2" t="n">
         <v>312588.928500312</v>
       </c>
       <c r="H2" t="n">
+        <v>312588.9285003116</v>
+      </c>
+      <c r="I2" t="n">
         <v>312588.9285003119</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>312588.9285003117</v>
       </c>
-      <c r="J2" t="n">
-        <v>312588.928500312</v>
-      </c>
       <c r="K2" t="n">
+        <v>312588.9285003118</v>
+      </c>
+      <c r="L2" t="n">
         <v>312588.9285003117</v>
       </c>
-      <c r="L2" t="n">
-        <v>312588.9285003119</v>
-      </c>
       <c r="M2" t="n">
-        <v>312588.928500312</v>
+        <v>312588.9285003116</v>
       </c>
       <c r="N2" t="n">
+        <v>312588.9285003116</v>
+      </c>
+      <c r="O2" t="n">
         <v>312588.9285003117</v>
       </c>
-      <c r="O2" t="n">
-        <v>312588.9285003118</v>
-      </c>
       <c r="P2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003117</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.5249487658</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.7457669103</v>
+        <v>627134.6436336678</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127022</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608628</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723342</v>
+        <v>137.8001180723341</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723342</v>
+        <v>137.800118072334</v>
       </c>
       <c r="D4" t="n">
-        <v>384.3219252469135</v>
+        <v>137.800118072334</v>
       </c>
       <c r="E4" t="n">
         <v>584.6469890061234</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
         <v>584.6469890061232</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
         <v>74306.34056139331</v>
@@ -26491,25 +26493,25 @@
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490172.840726655</v>
+        <v>-490172.8407266548</v>
       </c>
       <c r="C6" t="n">
+        <v>101184.0617941907</v>
+      </c>
+      <c r="D6" t="n">
         <v>101184.0617941906</v>
       </c>
-      <c r="D6" t="n">
-        <v>-211801.3102514463</v>
-      </c>
       <c r="E6" t="n">
-        <v>-38332.80481699772</v>
+        <v>-389436.7026837553</v>
       </c>
       <c r="F6" t="n">
-        <v>237697.9409499125</v>
+        <v>237697.9409499124</v>
       </c>
       <c r="G6" t="n">
         <v>237697.9409499125</v>
       </c>
       <c r="H6" t="n">
+        <v>237697.9409499122</v>
+      </c>
+      <c r="I6" t="n">
         <v>237697.9409499124</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>188632.9962213677</v>
+      </c>
+      <c r="K6" t="n">
+        <v>237697.9409499124</v>
+      </c>
+      <c r="L6" t="n">
+        <v>237697.9409499122</v>
+      </c>
+      <c r="M6" t="n">
+        <v>77241.49908203482</v>
+      </c>
+      <c r="N6" t="n">
+        <v>237697.9409499122</v>
+      </c>
+      <c r="O6" t="n">
+        <v>237697.9409499122</v>
+      </c>
+      <c r="P6" t="n">
         <v>237697.9409499123</v>
-      </c>
-      <c r="J6" t="n">
-        <v>188632.996221368</v>
-      </c>
-      <c r="K6" t="n">
-        <v>237697.9409499123</v>
-      </c>
-      <c r="L6" t="n">
-        <v>147954.5628186423</v>
-      </c>
-      <c r="M6" t="n">
-        <v>165606.5883338263</v>
-      </c>
-      <c r="N6" t="n">
-        <v>237697.9409499123</v>
-      </c>
-      <c r="O6" t="n">
-        <v>237697.9409499124</v>
-      </c>
-      <c r="P6" t="n">
-        <v>237697.9409499124</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>853.710664537684</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593299</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
@@ -26811,25 +26813,25 @@
         <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247792</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556145</v>
+        <v>541.306759680394</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5893695598431</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761296</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.589369559843</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761299</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598431</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761296</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31045,28 +31047,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31075,13 +31077,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31136,7 +31138,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31145,22 +31147,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,46 +31281,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,13 +31357,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
         <v>111.4584056340083</v>
@@ -31370,34 +31372,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
         <v>114.9089482765069</v>
@@ -31458,25 +31460,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840425</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934777</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662297</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928394</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699489</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095114</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616797</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730377</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152842</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884504</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475631</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053858</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057842</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017474</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001568</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368735</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282505</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420138</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153088</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978874</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32245,7 +32247,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095029</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
         <v>738.1512123099059</v>
@@ -32254,7 +32256,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781694</v>
       </c>
       <c r="R17" t="n">
         <v>275.1987363563569</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33032,7 +33034,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33263,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33278,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33679,7 +33681,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
         <v>99.83230779806951</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33892,10 +33894,10 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953992</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003801</v>
       </c>
       <c r="L38" t="n">
         <v>691.3565293623194</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.215670698749</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34211,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34390,7 +34392,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
         <v>99.83230779806951</v>
@@ -34454,7 +34456,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142394</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808905</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140553</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866205</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109601</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093947</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510194</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892904</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850721</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563525</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767806</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769679</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
         <v>508.0530008882191</v>
@@ -35902,7 +35904,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -36437,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36680,7 +36682,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36911,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36926,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37148,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37327,7 +37329,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865553995</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38038,7 +38040,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38104,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
